--- a/REGULAR/OJT/NEW DONE/UY, EDWIN ALDEN V..xlsx
+++ b/REGULAR/OJT/NEW DONE/UY, EDWIN ALDEN V..xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\LEAVE CARD\PIO LEGAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\OJT\NEW DONE\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02340BDE-F036-4C5D-AAEF-1C1F899516DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8700" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,25 +25,17 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
   <si>
     <t>PERIOD</t>
   </si>
@@ -170,7 +163,7 @@
     <t>SL EARNED</t>
   </si>
   <si>
-    <t>EDWIN, ALDEN V.</t>
+    <t>ATTY. EDWIN ALDEN V. UY</t>
   </si>
   <si>
     <t>2016</t>
@@ -179,16 +172,22 @@
     <t>2017</t>
   </si>
   <si>
-    <t>2020</t>
+    <t>FL (5-0-0)</t>
+  </si>
+  <si>
+    <t>2018</t>
   </si>
   <si>
     <t>2019</t>
   </si>
   <si>
-    <t>2018</t>
+    <t>2020</t>
   </si>
   <si>
-    <t>FL(5-0-0)</t>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
   </si>
   <si>
     <t>VL(19-0-0)</t>
@@ -196,11 +195,26 @@
   <si>
     <t>01/14-02/07/2020</t>
   </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>TOTAL LEAVE</t>
+  </si>
+  <si>
+    <t>LEGAL</t>
+  </si>
+  <si>
+    <t>PERMANENT</t>
+  </si>
+  <si>
+    <t>1 - Married (and not separated)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2592,25 +2606,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K133" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K131" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2622,13 +2636,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2637,14 +2651,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2948,7 +2962,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2958,7 +2972,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2966,34 +2980,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K133"/>
+  <dimension ref="A2:K131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1800" topLeftCell="A37" activePane="bottomLeft"/>
-      <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="K53" sqref="K53"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1884" activePane="bottomLeft"/>
+      <selection activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3005,7 +3019,9 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="57"/>
+      <c r="F2" s="57" t="s">
+        <v>57</v>
+      </c>
       <c r="G2" s="57"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
@@ -3014,7 +3030,7 @@
       <c r="J2" s="51"/>
       <c r="K2" s="52"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3023,7 +3039,9 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="58"/>
+      <c r="F3" s="58">
+        <v>42709</v>
+      </c>
       <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
@@ -3032,16 +3050,20 @@
       <c r="J3" s="53"/>
       <c r="K3" s="54"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="50"/>
+      <c r="B4" s="50" t="s">
+        <v>56</v>
+      </c>
       <c r="C4" s="50"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55"/>
+      <c r="F4" s="55" t="s">
+        <v>55</v>
+      </c>
       <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
@@ -3050,7 +3072,7 @@
       <c r="J4" s="55"/>
       <c r="K4" s="56"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3058,7 +3080,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3071,7 +3093,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="49" t="s">
@@ -3088,7 +3110,7 @@
       <c r="J7" s="49"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3123,7 +3145,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3132,7 +3154,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>27.25</v>
+        <v>49.582999999999998</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3142,12 +3164,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>61.25</v>
+        <v>93.582999999999998</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -3169,27 +3191,27 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>42709</v>
       </c>
       <c r="B11" s="20"/>
       <c r="C11" s="13">
-        <v>1.25</v>
+        <v>1.083</v>
       </c>
       <c r="D11" s="39"/>
       <c r="E11" s="9"/>
       <c r="F11" s="20"/>
       <c r="G11" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>1.083</v>
       </c>
       <c r="H11" s="39"/>
       <c r="I11" s="9"/>
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="48" t="s">
         <v>44</v>
       </c>
@@ -3207,7 +3229,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>42736</v>
       </c>
@@ -3227,8 +3249,9 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
+        <f>EDATE(A13,1)</f>
         <v>42767</v>
       </c>
       <c r="B14" s="20"/>
@@ -3247,8 +3270,9 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
+        <f t="shared" ref="A15:A24" si="0">EDATE(A14,1)</f>
         <v>42795</v>
       </c>
       <c r="B15" s="20"/>
@@ -3267,8 +3291,9 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
+        <f t="shared" si="0"/>
         <v>42826</v>
       </c>
       <c r="B16" s="15"/>
@@ -3287,8 +3312,9 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
+        <f t="shared" si="0"/>
         <v>42856</v>
       </c>
       <c r="B17" s="20"/>
@@ -3307,8 +3333,9 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
+        <f t="shared" si="0"/>
         <v>42887</v>
       </c>
       <c r="B18" s="20"/>
@@ -3327,8 +3354,9 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
+        <f t="shared" si="0"/>
         <v>42917</v>
       </c>
       <c r="B19" s="20"/>
@@ -3347,8 +3375,9 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
+        <f t="shared" si="0"/>
         <v>42948</v>
       </c>
       <c r="B20" s="20"/>
@@ -3367,8 +3396,9 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
+        <f t="shared" si="0"/>
         <v>42979</v>
       </c>
       <c r="B21" s="20"/>
@@ -3387,8 +3417,9 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
+        <f t="shared" si="0"/>
         <v>43009</v>
       </c>
       <c r="B22" s="20"/>
@@ -3407,8 +3438,9 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
+        <f>EDATE(A22,1)</f>
         <v>43040</v>
       </c>
       <c r="B23" s="20"/>
@@ -3427,12 +3459,13 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
+        <f t="shared" si="0"/>
         <v>43070</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C24" s="13">
         <v>1.25</v>
@@ -3451,9 +3484,9 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B25" s="20"/>
       <c r="C25" s="13"/>
@@ -3469,7 +3502,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>43101</v>
       </c>
@@ -3489,8 +3522,9 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
+        <f>EDATE(A26,1)</f>
         <v>43132</v>
       </c>
       <c r="B27" s="20"/>
@@ -3509,8 +3543,9 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
+        <f t="shared" ref="A28:A37" si="1">EDATE(A27,1)</f>
         <v>43160</v>
       </c>
       <c r="B28" s="20"/>
@@ -3529,8 +3564,9 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
+        <f t="shared" si="1"/>
         <v>43191</v>
       </c>
       <c r="B29" s="20"/>
@@ -3549,8 +3585,9 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
+        <f t="shared" si="1"/>
         <v>43221</v>
       </c>
       <c r="B30" s="20"/>
@@ -3569,8 +3606,9 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
+        <f t="shared" si="1"/>
         <v>43252</v>
       </c>
       <c r="B31" s="20"/>
@@ -3589,8 +3627,9 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
+        <f t="shared" si="1"/>
         <v>43282</v>
       </c>
       <c r="B32" s="20"/>
@@ -3609,8 +3648,9 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
+        <f t="shared" si="1"/>
         <v>43313</v>
       </c>
       <c r="B33" s="20"/>
@@ -3629,8 +3669,9 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
+        <f t="shared" si="1"/>
         <v>43344</v>
       </c>
       <c r="B34" s="20"/>
@@ -3649,8 +3690,9 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
+        <f t="shared" si="1"/>
         <v>43374</v>
       </c>
       <c r="B35" s="20"/>
@@ -3669,8 +3711,9 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
+        <f t="shared" si="1"/>
         <v>43405</v>
       </c>
       <c r="B36" s="20"/>
@@ -3689,12 +3732,13 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
+        <f t="shared" si="1"/>
         <v>43435</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C37" s="13">
         <v>1.25</v>
@@ -3713,9 +3757,9 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -3731,7 +3775,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>43466</v>
       </c>
@@ -3751,8 +3795,9 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
+        <f>EDATE(A39,1)</f>
         <v>43497</v>
       </c>
       <c r="B40" s="20"/>
@@ -3771,8 +3816,9 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
+        <f t="shared" ref="A41:A49" si="2">EDATE(A40,1)</f>
         <v>43525</v>
       </c>
       <c r="B41" s="20"/>
@@ -3791,8 +3837,9 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
+        <f t="shared" si="2"/>
         <v>43556</v>
       </c>
       <c r="B42" s="20"/>
@@ -3811,8 +3858,9 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
+        <f t="shared" si="2"/>
         <v>43586</v>
       </c>
       <c r="B43" s="20"/>
@@ -3831,8 +3879,9 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
+        <f t="shared" si="2"/>
         <v>43617</v>
       </c>
       <c r="B44" s="20"/>
@@ -3851,8 +3900,9 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
+        <f t="shared" si="2"/>
         <v>43647</v>
       </c>
       <c r="B45" s="20"/>
@@ -3871,8 +3921,9 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
+        <f t="shared" si="2"/>
         <v>43678</v>
       </c>
       <c r="B46" s="20"/>
@@ -3891,8 +3942,9 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
+        <f t="shared" si="2"/>
         <v>43709</v>
       </c>
       <c r="B47" s="20"/>
@@ -3911,8 +3963,9 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
+        <f t="shared" si="2"/>
         <v>43739</v>
       </c>
       <c r="B48" s="20"/>
@@ -3931,8 +3984,9 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
+        <f t="shared" si="2"/>
         <v>43770</v>
       </c>
       <c r="B49" s="20"/>
@@ -3951,12 +4005,13 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
+        <f>EDATE(A49,1)</f>
         <v>43800</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C50" s="13">
         <v>1.25</v>
@@ -3975,9 +4030,9 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="48" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -3993,12 +4048,12 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>43831</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C52" s="13">
         <v>1.25</v>
@@ -4016,11 +4071,12 @@
       <c r="I52" s="9"/>
       <c r="J52" s="11"/>
       <c r="K52" s="20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
+        <f>EDATE(A52,1)</f>
         <v>43862</v>
       </c>
       <c r="B53" s="20"/>
@@ -4039,8 +4095,9 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
+        <f t="shared" ref="A54:A62" si="3">EDATE(A53,1)</f>
         <v>43891</v>
       </c>
       <c r="B54" s="20"/>
@@ -4059,8 +4116,9 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
+        <f t="shared" si="3"/>
         <v>43922</v>
       </c>
       <c r="B55" s="20"/>
@@ -4079,8 +4137,9 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
+        <f t="shared" si="3"/>
         <v>43952</v>
       </c>
       <c r="B56" s="20"/>
@@ -4099,8 +4158,9 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
+        <f t="shared" si="3"/>
         <v>43983</v>
       </c>
       <c r="B57" s="20"/>
@@ -4119,8 +4179,9 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
+        <f t="shared" si="3"/>
         <v>44013</v>
       </c>
       <c r="B58" s="20"/>
@@ -4139,8 +4200,9 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
+        <f t="shared" si="3"/>
         <v>44044</v>
       </c>
       <c r="B59" s="20"/>
@@ -4159,8 +4221,9 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
+        <f t="shared" si="3"/>
         <v>44075</v>
       </c>
       <c r="B60" s="20"/>
@@ -4179,8 +4242,9 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
+        <f t="shared" si="3"/>
         <v>44105</v>
       </c>
       <c r="B61" s="20"/>
@@ -4199,8 +4263,9 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
+        <f t="shared" si="3"/>
         <v>44136</v>
       </c>
       <c r="B62" s="20"/>
@@ -4219,8 +4284,9 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
+        <f>EDATE(A62,1)</f>
         <v>44166</v>
       </c>
       <c r="B63" s="20"/>
@@ -4239,8 +4305,10 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="40"/>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" s="48" t="s">
+        <v>49</v>
+      </c>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
       <c r="D64" s="39"/>
@@ -4255,200 +4323,265 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="40"/>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" s="40">
+        <v>44197</v>
+      </c>
       <c r="B65" s="20"/>
-      <c r="C65" s="13"/>
+      <c r="C65" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D65" s="39"/>
       <c r="E65" s="9"/>
       <c r="F65" s="20"/>
-      <c r="G65" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G65" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H65" s="39"/>
       <c r="I65" s="9"/>
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="40"/>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" s="40">
+        <f>EDATE(A65,1)</f>
+        <v>44228</v>
+      </c>
       <c r="B66" s="20"/>
-      <c r="C66" s="13"/>
+      <c r="C66" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D66" s="39"/>
       <c r="E66" s="9"/>
       <c r="F66" s="20"/>
-      <c r="G66" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G66" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H66" s="39"/>
       <c r="I66" s="9"/>
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="40"/>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67" s="40">
+        <f t="shared" ref="A67:A76" si="4">EDATE(A66,1)</f>
+        <v>44256</v>
+      </c>
       <c r="B67" s="20"/>
-      <c r="C67" s="13"/>
+      <c r="C67" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D67" s="39"/>
       <c r="E67" s="9"/>
       <c r="F67" s="20"/>
-      <c r="G67" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G67" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H67" s="39"/>
       <c r="I67" s="9"/>
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="40"/>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A68" s="40">
+        <f t="shared" si="4"/>
+        <v>44287</v>
+      </c>
       <c r="B68" s="20"/>
-      <c r="C68" s="13"/>
+      <c r="C68" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D68" s="39"/>
       <c r="E68" s="9"/>
       <c r="F68" s="20"/>
-      <c r="G68" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G68" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H68" s="39"/>
       <c r="I68" s="9"/>
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="40"/>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69" s="40">
+        <f t="shared" si="4"/>
+        <v>44317</v>
+      </c>
       <c r="B69" s="20"/>
-      <c r="C69" s="13"/>
+      <c r="C69" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D69" s="39"/>
       <c r="E69" s="9"/>
       <c r="F69" s="20"/>
-      <c r="G69" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G69" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H69" s="39"/>
       <c r="I69" s="9"/>
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="40"/>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A70" s="40">
+        <f t="shared" si="4"/>
+        <v>44348</v>
+      </c>
       <c r="B70" s="20"/>
-      <c r="C70" s="13"/>
+      <c r="C70" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D70" s="39"/>
       <c r="E70" s="9"/>
       <c r="F70" s="20"/>
-      <c r="G70" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G70" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H70" s="39"/>
       <c r="I70" s="9"/>
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="40"/>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A71" s="40">
+        <f t="shared" si="4"/>
+        <v>44378</v>
+      </c>
       <c r="B71" s="20"/>
-      <c r="C71" s="13"/>
+      <c r="C71" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D71" s="39"/>
       <c r="E71" s="9"/>
       <c r="F71" s="20"/>
-      <c r="G71" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G71" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H71" s="39"/>
       <c r="I71" s="9"/>
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="40"/>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A72" s="40">
+        <f t="shared" si="4"/>
+        <v>44409</v>
+      </c>
       <c r="B72" s="20"/>
-      <c r="C72" s="13"/>
+      <c r="C72" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D72" s="39"/>
       <c r="E72" s="9"/>
       <c r="F72" s="20"/>
-      <c r="G72" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G72" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H72" s="39"/>
       <c r="I72" s="9"/>
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="40"/>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A73" s="40">
+        <f t="shared" si="4"/>
+        <v>44440</v>
+      </c>
       <c r="B73" s="20"/>
-      <c r="C73" s="13"/>
+      <c r="C73" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D73" s="39"/>
       <c r="E73" s="9"/>
       <c r="F73" s="20"/>
-      <c r="G73" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G73" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H73" s="39"/>
       <c r="I73" s="9"/>
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="40"/>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74" s="40">
+        <f t="shared" si="4"/>
+        <v>44470</v>
+      </c>
       <c r="B74" s="20"/>
-      <c r="C74" s="13"/>
+      <c r="C74" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D74" s="39"/>
       <c r="E74" s="9"/>
       <c r="F74" s="20"/>
-      <c r="G74" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G74" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H74" s="39"/>
       <c r="I74" s="9"/>
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="40"/>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" s="40">
+        <f t="shared" si="4"/>
+        <v>44501</v>
+      </c>
       <c r="B75" s="20"/>
-      <c r="C75" s="13"/>
+      <c r="C75" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D75" s="39"/>
       <c r="E75" s="9"/>
       <c r="F75" s="20"/>
-      <c r="G75" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G75" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H75" s="39"/>
       <c r="I75" s="9"/>
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="40"/>
-      <c r="B76" s="20"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="39"/>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" s="40">
+        <f t="shared" si="4"/>
+        <v>44531</v>
+      </c>
+      <c r="B76" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C76" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D76" s="39">
+        <v>5</v>
+      </c>
       <c r="E76" s="9"/>
       <c r="F76" s="20"/>
-      <c r="G76" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G76" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H76" s="39"/>
       <c r="I76" s="9"/>
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="40"/>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" s="48" t="s">
+        <v>50</v>
+      </c>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
       <c r="D77" s="39"/>
@@ -4463,200 +4596,259 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="40"/>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" s="40">
+        <v>44562</v>
+      </c>
       <c r="B78" s="20"/>
-      <c r="C78" s="13"/>
+      <c r="C78" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D78" s="39"/>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G78" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H78" s="39"/>
       <c r="I78" s="9"/>
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="40"/>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" s="40">
+        <f>EDATE(A78,1)</f>
+        <v>44593</v>
+      </c>
       <c r="B79" s="20"/>
-      <c r="C79" s="13"/>
+      <c r="C79" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D79" s="39"/>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
-      <c r="G79" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G79" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H79" s="39"/>
       <c r="I79" s="9"/>
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="40"/>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" s="40">
+        <f t="shared" ref="A80:A83" si="5">EDATE(A79,1)</f>
+        <v>44621</v>
+      </c>
       <c r="B80" s="20"/>
-      <c r="C80" s="13"/>
+      <c r="C80" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D80" s="39"/>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G80" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H80" s="39"/>
       <c r="I80" s="9"/>
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="40"/>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" s="40">
+        <f t="shared" si="5"/>
+        <v>44652</v>
+      </c>
       <c r="B81" s="20"/>
-      <c r="C81" s="13"/>
+      <c r="C81" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D81" s="39"/>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
-      <c r="G81" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G81" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H81" s="39"/>
       <c r="I81" s="9"/>
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="40"/>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" s="40">
+        <f t="shared" si="5"/>
+        <v>44682</v>
+      </c>
       <c r="B82" s="20"/>
-      <c r="C82" s="13"/>
+      <c r="C82" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D82" s="39"/>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G82" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H82" s="39"/>
       <c r="I82" s="9"/>
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="40"/>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" s="40">
+        <f t="shared" si="5"/>
+        <v>44713</v>
+      </c>
       <c r="B83" s="20"/>
-      <c r="C83" s="13"/>
+      <c r="C83" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D83" s="39"/>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G83" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H83" s="39"/>
       <c r="I83" s="9"/>
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="40"/>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" s="40">
+        <v>44743</v>
+      </c>
       <c r="B84" s="20"/>
-      <c r="C84" s="13"/>
+      <c r="C84" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D84" s="39"/>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
-      <c r="G84" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G84" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H84" s="39"/>
       <c r="I84" s="9"/>
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="40"/>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85" s="40">
+        <v>44774</v>
+      </c>
       <c r="B85" s="20"/>
-      <c r="C85" s="13"/>
+      <c r="C85" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D85" s="39"/>
       <c r="E85" s="9"/>
       <c r="F85" s="20"/>
-      <c r="G85" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G85" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H85" s="39"/>
       <c r="I85" s="9"/>
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="40"/>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A86" s="40">
+        <v>44805</v>
+      </c>
       <c r="B86" s="20"/>
-      <c r="C86" s="13"/>
+      <c r="C86" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D86" s="39"/>
       <c r="E86" s="9"/>
       <c r="F86" s="20"/>
-      <c r="G86" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G86" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H86" s="39"/>
       <c r="I86" s="9"/>
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="40"/>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A87" s="40">
+        <v>44835</v>
+      </c>
       <c r="B87" s="20"/>
-      <c r="C87" s="13"/>
+      <c r="C87" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D87" s="39"/>
       <c r="E87" s="9"/>
       <c r="F87" s="20"/>
-      <c r="G87" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G87" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H87" s="39"/>
       <c r="I87" s="9"/>
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="40"/>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A88" s="40">
+        <v>44866</v>
+      </c>
       <c r="B88" s="20"/>
-      <c r="C88" s="13"/>
+      <c r="C88" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D88" s="39"/>
       <c r="E88" s="9"/>
       <c r="F88" s="20"/>
-      <c r="G88" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G88" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H88" s="39"/>
       <c r="I88" s="9"/>
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="40"/>
-      <c r="B89" s="20"/>
-      <c r="C89" s="13"/>
-      <c r="D89" s="39"/>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A89" s="40">
+        <v>44896</v>
+      </c>
+      <c r="B89" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C89" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D89" s="39">
+        <v>5</v>
+      </c>
       <c r="E89" s="9"/>
       <c r="F89" s="20"/>
-      <c r="G89" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G89" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H89" s="39"/>
       <c r="I89" s="9"/>
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="40"/>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A90" s="48" t="s">
+        <v>53</v>
+      </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
       <c r="D90" s="39"/>
@@ -4671,40 +4863,50 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="40"/>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A91" s="40">
+        <v>44927</v>
+      </c>
       <c r="B91" s="20"/>
-      <c r="C91" s="13"/>
+      <c r="C91" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D91" s="39"/>
       <c r="E91" s="9"/>
       <c r="F91" s="20"/>
-      <c r="G91" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G91" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H91" s="39"/>
       <c r="I91" s="9"/>
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="40"/>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A92" s="40">
+        <v>44958</v>
+      </c>
       <c r="B92" s="20"/>
-      <c r="C92" s="13"/>
+      <c r="C92" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D92" s="39"/>
       <c r="E92" s="9"/>
       <c r="F92" s="20"/>
-      <c r="G92" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G92" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H92" s="39"/>
       <c r="I92" s="9"/>
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="40"/>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A93" s="40">
+        <v>44986</v>
+      </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
       <c r="D93" s="39"/>
@@ -4719,8 +4921,10 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="40"/>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A94" s="40">
+        <v>45017</v>
+      </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
       <c r="D94" s="39"/>
@@ -4735,8 +4939,10 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="40"/>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A95" s="40">
+        <v>45047</v>
+      </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
       <c r="D95" s="39"/>
@@ -4751,8 +4957,10 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="40"/>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A96" s="40">
+        <v>45078</v>
+      </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
       <c r="D96" s="39"/>
@@ -4767,8 +4975,10 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="40"/>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A97" s="40">
+        <v>45108</v>
+      </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
       <c r="D97" s="39"/>
@@ -4783,8 +4993,10 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="40"/>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A98" s="40">
+        <v>45139</v>
+      </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
       <c r="D98" s="39"/>
@@ -4799,8 +5011,10 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="40"/>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A99" s="40">
+        <v>45170</v>
+      </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
       <c r="D99" s="39"/>
@@ -4815,8 +5029,10 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="40"/>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A100" s="40">
+        <v>45200</v>
+      </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
       <c r="D100" s="39"/>
@@ -4831,8 +5047,10 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="40"/>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A101" s="40">
+        <v>45231</v>
+      </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
       <c r="D101" s="39"/>
@@ -4847,8 +5065,10 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="40"/>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A102" s="40">
+        <v>45261</v>
+      </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
       <c r="D102" s="39"/>
@@ -4863,8 +5083,10 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="40"/>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A103" s="40">
+        <v>45292</v>
+      </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
       <c r="D103" s="39"/>
@@ -4879,8 +5101,10 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="40"/>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A104" s="40">
+        <v>45323</v>
+      </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
       <c r="D104" s="39"/>
@@ -4895,8 +5119,10 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="40"/>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A105" s="40">
+        <v>45352</v>
+      </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
       <c r="D105" s="39"/>
@@ -4911,8 +5137,10 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="40"/>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A106" s="40">
+        <v>45383</v>
+      </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
       <c r="D106" s="39"/>
@@ -4927,8 +5155,10 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="40"/>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A107" s="40">
+        <v>45413</v>
+      </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
       <c r="D107" s="39"/>
@@ -4943,8 +5173,10 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="40"/>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A108" s="40">
+        <v>45444</v>
+      </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
       <c r="D108" s="39"/>
@@ -4959,8 +5191,10 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="40"/>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A109" s="40">
+        <v>45474</v>
+      </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
       <c r="D109" s="39"/>
@@ -4975,8 +5209,10 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="40"/>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A110" s="40">
+        <v>45505</v>
+      </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
       <c r="D110" s="39"/>
@@ -4991,8 +5227,10 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="40"/>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A111" s="40">
+        <v>45536</v>
+      </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
       <c r="D111" s="39"/>
@@ -5007,8 +5245,10 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="40"/>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A112" s="40">
+        <v>45566</v>
+      </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
       <c r="D112" s="39"/>
@@ -5023,8 +5263,10 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" s="40"/>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A113" s="40">
+        <v>45597</v>
+      </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
       <c r="D113" s="39"/>
@@ -5039,8 +5281,10 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114" s="40"/>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A114" s="40">
+        <v>45627</v>
+      </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
       <c r="D114" s="39"/>
@@ -5055,8 +5299,10 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="40"/>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A115" s="40">
+        <v>45658</v>
+      </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
       <c r="D115" s="39"/>
@@ -5071,8 +5317,10 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116" s="40"/>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A116" s="40">
+        <v>45689</v>
+      </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
       <c r="D116" s="39"/>
@@ -5087,8 +5335,10 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" s="40"/>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A117" s="40">
+        <v>45717</v>
+      </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
       <c r="D117" s="39"/>
@@ -5103,8 +5353,10 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" s="40"/>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A118" s="40">
+        <v>45748</v>
+      </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
       <c r="D118" s="39"/>
@@ -5119,8 +5371,10 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" s="40"/>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A119" s="40">
+        <v>45778</v>
+      </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
       <c r="D119" s="39"/>
@@ -5135,8 +5389,10 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120" s="40"/>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A120" s="40">
+        <v>45809</v>
+      </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
       <c r="D120" s="39"/>
@@ -5151,8 +5407,10 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="40"/>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A121" s="40">
+        <v>45839</v>
+      </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
       <c r="D121" s="39"/>
@@ -5167,8 +5425,10 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A122" s="40"/>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A122" s="40">
+        <v>45870</v>
+      </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
       <c r="D122" s="39"/>
@@ -5183,8 +5443,10 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A123" s="40"/>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A123" s="40">
+        <v>45901</v>
+      </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
       <c r="D123" s="39"/>
@@ -5199,8 +5461,10 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" s="40"/>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A124" s="40">
+        <v>45931</v>
+      </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
       <c r="D124" s="39"/>
@@ -5215,8 +5479,10 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A125" s="40"/>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A125" s="40">
+        <v>45962</v>
+      </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
       <c r="D125" s="39"/>
@@ -5231,8 +5497,10 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A126" s="40"/>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A126" s="40">
+        <v>45992</v>
+      </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
       <c r="D126" s="39"/>
@@ -5247,8 +5515,10 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127" s="40"/>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A127" s="40">
+        <v>46023</v>
+      </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
       <c r="D127" s="39"/>
@@ -5263,7 +5533,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5279,7 +5549,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5295,7 +5565,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5311,53 +5581,21 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A131" s="40"/>
-      <c r="B131" s="20"/>
-      <c r="C131" s="13"/>
-      <c r="D131" s="39"/>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A131" s="41"/>
+      <c r="B131" s="15"/>
+      <c r="C131" s="42"/>
+      <c r="D131" s="43"/>
       <c r="E131" s="9"/>
-      <c r="F131" s="20"/>
-      <c r="G131" s="13" t="str">
+      <c r="F131" s="15"/>
+      <c r="G131" s="42" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H131" s="39"/>
+      <c r="H131" s="43"/>
       <c r="I131" s="9"/>
-      <c r="J131" s="11"/>
-      <c r="K131" s="20"/>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A132" s="40"/>
-      <c r="B132" s="20"/>
-      <c r="C132" s="13"/>
-      <c r="D132" s="39"/>
-      <c r="E132" s="9"/>
-      <c r="F132" s="20"/>
-      <c r="G132" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H132" s="39"/>
-      <c r="I132" s="9"/>
-      <c r="J132" s="11"/>
-      <c r="K132" s="20"/>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A133" s="41"/>
-      <c r="B133" s="15"/>
-      <c r="C133" s="42"/>
-      <c r="D133" s="43"/>
-      <c r="E133" s="9"/>
-      <c r="F133" s="15"/>
-      <c r="G133" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H133" s="43"/>
-      <c r="I133" s="9"/>
-      <c r="J133" s="12"/>
-      <c r="K133" s="15"/>
+      <c r="J131" s="12"/>
+      <c r="K131" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5374,15 +5612,15 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="89" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup scale="89" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"-,Bold"&amp;12REPUBLIC OF THE PHILIPPINES
 CITY OF TAGAYTAY
@@ -5390,8 +5628,8 @@
     <oddFooter>&amp;L
 PREPARED BY: ___________________
 DATE: &amp;D, &amp;T&amp;C
-CERTIFIED CORRECT BY: &amp;UALMA A. MALABANAN&amp;U
-                                   HRMO&amp;RPage &amp;P of &amp;N</oddFooter>
+CERTIFIED CORRECT BY: &amp;UNANETTE B. SUSA&amp;U
+                                              OIC-HRMO&amp;RPage &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
@@ -5400,29 +5638,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.21875" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
@@ -5435,7 +5673,7 @@
       <c r="K1" s="60"/>
       <c r="L1" s="60"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -5464,7 +5702,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3"/>
@@ -5474,27 +5712,32 @@
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="1"/>
+      <c r="J3" s="1">
+        <v>5</v>
+      </c>
       <c r="K3" s="35">
         <f>J4-1</f>
-        <v>-1</v>
-      </c>
-      <c r="L3" s="45" t="str">
+        <v>4</v>
+      </c>
+      <c r="L3" s="45">
         <f>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</f>
-        <v>---</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>1.083</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -5515,7 +5758,11 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <f>SUM(Sheet1!E9,Sheet1!I9)</f>
+        <v>143.166</v>
+      </c>
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -5542,7 +5789,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -5568,7 +5815,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -5594,7 +5841,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -5620,7 +5867,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -5646,7 +5893,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -5672,7 +5919,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -5698,7 +5945,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -5724,7 +5971,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -5744,7 +5991,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -5764,7 +6011,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -5784,7 +6031,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -5805,7 +6052,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -5826,7 +6073,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -5847,7 +6094,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -5868,7 +6115,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -5889,7 +6136,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -5910,7 +6157,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -5931,7 +6178,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -5952,7 +6199,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -5973,7 +6220,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -5994,7 +6241,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -6015,7 +6262,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -6036,7 +6283,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -6057,7 +6304,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -6078,7 +6325,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -6099,7 +6346,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -6120,7 +6367,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -6141,7 +6388,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -6162,7 +6409,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -6183,7 +6430,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -6204,7 +6451,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -6213,7 +6460,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -6222,7 +6469,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -6231,7 +6478,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -6240,7 +6487,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -6249,7 +6496,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -6258,7 +6505,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -6267,7 +6514,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -6276,7 +6523,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -6285,7 +6532,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -6294,7 +6541,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -6303,7 +6550,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -6312,7 +6559,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -6321,7 +6568,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -6330,7 +6577,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -6339,7 +6586,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -6348,7 +6595,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -6357,7 +6604,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -6366,7 +6613,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -6375,7 +6622,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -6384,7 +6631,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -6393,7 +6640,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -6402,7 +6649,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -6411,7 +6658,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -6420,7 +6667,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -6429,7 +6676,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -6438,7 +6685,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -6447,7 +6694,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -6456,7 +6703,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -6465,7 +6712,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
